--- a/Recycling/Met_rec/metrec_Min_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>55579.9792399112</v>
+        <v>55579.97923991122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>64307.96100302235</v>
+        <v>64307.96100302236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>93395.27619719857</v>
+        <v>93395.27619719859</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>136136.6974506027</v>
+        <v>136136.6974506026</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>505872.9439998682</v>
+        <v>505872.9439998683</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1950034.592079029</v>
+        <v>1950034.592079028</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1953747.730931858</v>
+        <v>1953747.730931857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6207,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1681427.682419383</v>
+        <v>1681427.682419382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6339,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1854362.458575675</v>
+        <v>1854362.458575674</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Min.xlsx
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3865.776344799181</v>
+        <v>3865.77634479918</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6523.154434374132</v>
+        <v>6523.154434374131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>25772.64829825615</v>
+        <v>25772.64829825614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>196957.7007886823</v>
+        <v>196957.7007886824</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>41310.12999484939</v>
+        <v>41310.12999484938</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4212,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>90768.13438003878</v>
+        <v>90768.1343800388</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>172146.7479405657</v>
+        <v>172146.7479405658</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>561402.4571168362</v>
+        <v>561402.4571168363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5416009.360160451</v>
+        <v>5416009.36016045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2296105.669714038</v>
+        <v>2296105.669714037</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3240194.355851314</v>
+        <v>3240194.355851313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6663928.083289166</v>
+        <v>6663928.083289165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3574353.96278046</v>
+        <v>3574353.962780461</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>10690381.70773666</v>
+        <v>10690381.70773665</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2835902.498836984</v>
+        <v>2835902.498836983</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8904,7 +8904,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6954278.454285329</v>
+        <v>6954278.45428533</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3045741.027934914</v>
+        <v>3045741.027934913</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3822198.998703024</v>
+        <v>3822198.998703025</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3743807.721783264</v>
+        <v>3743807.721783265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5640682.223663367</v>
+        <v>5640682.223663368</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12576,7 +12576,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5903544.534345631</v>
+        <v>5903544.534345632</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3774286.135180149</v>
+        <v>3774286.135180148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2873453.018932507</v>
+        <v>2873453.018932506</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>17048814.10649428</v>
+        <v>17048814.10649427</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13728,7 +13728,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2915528.549595386</v>
+        <v>2915528.549595387</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4068290.559360886</v>
+        <v>4068290.559360885</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3718119.216462788</v>
+        <v>3718119.216462787</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2735441.88179853</v>
+        <v>2735441.881798529</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3861603.579644138</v>
+        <v>3861603.579644137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16380,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2985787.343553465</v>
+        <v>2985787.343553464</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6279101.944732414</v>
+        <v>6279101.944732415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17516,7 +17516,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4594628.529440699</v>
+        <v>4594628.5294407</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18084,7 +18084,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6186151.307545958</v>
+        <v>6186151.307545959</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4592148.149494526</v>
+        <v>4592148.149494525</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4491831.000976484</v>
+        <v>4491831.000976485</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18988,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>653.8797246285711</v>
+        <v>653.8797246285712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3073085.908616928</v>
+        <v>3073085.908616929</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4296438.283433139</v>
+        <v>4296438.283433138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5635809.379005702</v>
+        <v>5635809.379005701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4334046.025884103</v>
+        <v>4334046.025884104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19600,7 +19600,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>29258450.71803063</v>
+        <v>29258450.71803064</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3097843.374731796</v>
+        <v>3097843.374731795</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4384084.764675043</v>
+        <v>4384084.764675044</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>30260522.98004062</v>
+        <v>30260522.98004061</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5800310.395319201</v>
+        <v>5800310.395319202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4570298.508668662</v>
+        <v>4570298.508668663</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>31279976.29372558</v>
+        <v>31279976.29372557</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20620,7 +20620,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>31782825.83361353</v>
+        <v>31782825.83361352</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5016644.976342126</v>
+        <v>5016644.976342127</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>32756601.77023435</v>
+        <v>32756601.77023436</v>
       </c>
     </row>
     <row r="13" spans="1:4">
